--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/13.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/13.xlsx
@@ -479,13 +479,13 @@
         <v>-22.30981121866179</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.997098688187455</v>
+        <v>-9.128349024175758</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.907279482872783</v>
+        <v>-2.903207776689006</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.541882860621845</v>
+        <v>-5.691684989736874</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-21.58785101019741</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.273935431775753</v>
+        <v>-9.407961335966503</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.935598133919436</v>
+        <v>-2.909439712841668</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.474261116444329</v>
+        <v>-5.630098797169395</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.76619029998629</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.09854103395903</v>
+        <v>-10.23420347600499</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.802488690927607</v>
+        <v>-2.764337720446818</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.343207164998652</v>
+        <v>-5.504203213043357</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.90718506617447</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.86416581184033</v>
+        <v>-10.99209070290683</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.7273388726161</v>
+        <v>-2.699792667437108</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.56763542031152</v>
+        <v>-5.731616513404139</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-19.02686702927875</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.66258680834015</v>
+        <v>-11.80438954041888</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.572326006970063</v>
+        <v>-2.536518558697942</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.11123774324895</v>
+        <v>-5.268227546624086</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.15982621261146</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.34908170784606</v>
+        <v>-12.49483831538299</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.552936306461467</v>
+        <v>-2.512022860081073</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.212519798032542</v>
+        <v>-5.363474049797643</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.315957321395</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.87549702050618</v>
+        <v>-13.03158345498523</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.431479012998774</v>
+        <v>-2.397006979616509</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.753634583430043</v>
+        <v>-4.898854406550469</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.54234613808189</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.84314912353815</v>
+        <v>-14.00571624792386</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.18190044392695</v>
+        <v>-2.159263852313606</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.636916703596055</v>
+        <v>-4.760691334661733</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.86135035657545</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.60601142551985</v>
+        <v>-14.77320013280869</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.166228957425404</v>
+        <v>-2.141353582026124</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.233136991654382</v>
+        <v>-4.357409130228046</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.29003853868885</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.27429493177291</v>
+        <v>-15.4404624394401</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.996356328054008</v>
+        <v>-1.959292018709082</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.013173211610542</v>
+        <v>-4.129000814851293</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.83498730438724</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.92622615177666</v>
+        <v>-16.09556199673154</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.026246055441669</v>
+        <v>-2.004853232598288</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.5007142937797</v>
+        <v>-3.612234529385523</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.47997663978059</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.89216316313637</v>
+        <v>-17.06347594582035</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.834561649535957</v>
+        <v>-1.808219936218405</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.861482607532425</v>
+        <v>-2.970502213295478</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.23246587488803</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.50785488887422</v>
+        <v>-17.6730797507368</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.577847775415393</v>
+        <v>-1.550812170047228</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.502570217429346</v>
+        <v>-2.620937727421392</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.07820385824111</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.40617015605641</v>
+        <v>-18.57625226227328</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.433086182894427</v>
+        <v>-1.41012228371004</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.93402387422455</v>
+        <v>-2.049799108253934</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.99696944289617</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.29991620954684</v>
+        <v>-19.46991976194666</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.27359574967652</v>
+        <v>-1.247515882415802</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.526185548401942</v>
+        <v>-1.640952675112512</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.96687000726199</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.0947106381595</v>
+        <v>-20.26751594336745</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.047190556634552</v>
+        <v>-1.029476670889696</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.016214168111028</v>
+        <v>-1.132840401825124</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.95439268090048</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.05400985197846</v>
+        <v>-21.22326714311629</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9645781257032602</v>
+        <v>-0.9482782086653112</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6494594886057554</v>
+        <v>-0.7655882148118657</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.95393688869952</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.88988792690846</v>
+        <v>-22.05817638763601</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8205627944442734</v>
+        <v>-0.8131132741273313</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2773107803296919</v>
+        <v>-0.3957961210473128</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.95273644947781</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.53210465820365</v>
+        <v>-22.70789500845951</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5743882241112982</v>
+        <v>-0.5732753783697514</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09221946737802635</v>
+        <v>-0.03066488709441453</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.93899535495041</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.15497096589877</v>
+        <v>-23.32847016315732</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2832023166084687</v>
+        <v>-0.2849828697949434</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4354996478880839</v>
+        <v>0.3186901219342039</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.90399592784823</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.79718769719396</v>
+        <v>-23.97961584499057</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06833144237006043</v>
+        <v>-0.08409457499149861</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4792410316822907</v>
+        <v>0.394010140182654</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-13.83188683138135</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.26834039955915</v>
+        <v>-24.43729656773163</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02644373790119458</v>
+        <v>0.0008613781484618409</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7340565218908052</v>
+        <v>0.6403680027554134</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-13.7287059415941</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.6434348759746</v>
+        <v>-24.81866225720826</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0001598214731927924</v>
+        <v>-0.02915927226761603</v>
       </c>
       <c r="G24" t="n">
-        <v>0.695303305479296</v>
+        <v>0.6220256864741551</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.59549036571109</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.92552163300243</v>
+        <v>-25.09912556868372</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2908951630012194</v>
+        <v>0.2630609271597098</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6716847911528221</v>
+        <v>0.5963124036930052</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-13.43114391591624</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.93095493868175</v>
+        <v>-25.10428393600336</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2953858228759315</v>
+        <v>0.2637286346046379</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5292143516291591</v>
+        <v>0.4576649165991261</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-13.23464188863325</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.88805146226941</v>
+        <v>-25.0610269674143</v>
       </c>
       <c r="F27" t="n">
-        <v>0.102418371291731</v>
+        <v>0.06806416863504175</v>
       </c>
       <c r="G27" t="n">
-        <v>0.516122048787433</v>
+        <v>0.4489847198150617</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.99682347667483</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.97406789193955</v>
+        <v>-25.14256582951257</v>
       </c>
       <c r="F28" t="n">
-        <v>0.252875115548847</v>
+        <v>0.23150847731115</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2166487135857909</v>
+        <v>0.1522345836044987</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.7257929774715</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.02121327447261</v>
+        <v>-25.19399239507487</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2211655580661864</v>
+        <v>0.1940252142752882</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1148691512942124</v>
+        <v>0.05776052629860334</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.426210983074</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.8095107375219</v>
+        <v>-24.98260407339236</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07734661134982553</v>
+        <v>0.05778671090428678</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.07115937978387327</v>
+        <v>-0.1229656221285833</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.10082962667511</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.3421548029808</v>
+        <v>-24.51421384692676</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08257044018367424</v>
+        <v>0.06047063298684063</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5688109031007228</v>
+        <v>-0.6277524504941736</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.75371032084772</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.38985006223321</v>
+        <v>-24.56222332144738</v>
       </c>
       <c r="F32" t="n">
-        <v>0.134821820825003</v>
+        <v>0.1131671519247881</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6889982431877681</v>
+        <v>-0.7550358187214344</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.38280309565322</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.99425303956762</v>
+        <v>-24.16649537575336</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06795943021230794</v>
+        <v>0.05075614427827989</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.190865488019653</v>
+        <v>-1.263305199642924</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.0017488023799</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.40716799553893</v>
+        <v>-23.57181679607648</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.05162566394401797</v>
+        <v>-0.05166494085254315</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.265976029422636</v>
+        <v>-1.332079066470511</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-10.6221946341555</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.04875311294384</v>
+        <v>-23.21022048389085</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2473686837306644</v>
+        <v>-0.2436766543292977</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.340497417197741</v>
+        <v>-1.423803740179644</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-10.25250253339907</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.31246818573085</v>
+        <v>-22.46700972847459</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3606825648258035</v>
+        <v>-0.3566370432477102</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.531435561841474</v>
+        <v>-1.60854922557924</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.900524906369073</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.51395554311114</v>
+        <v>-21.6706704081266</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3007460024163816</v>
+        <v>-0.2970670653178566</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.660944621551828</v>
+        <v>-1.747537112547004</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.566869183990436</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.1380493439195</v>
+        <v>-21.29052230281424</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3783048044507668</v>
+        <v>-0.3751757440715943</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.918457126145738</v>
+        <v>-2.008571446605338</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.263274733419559</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.48448158606053</v>
+        <v>-20.63802811378829</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2331504428445499</v>
+        <v>-0.2474603298505565</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.083590341888429</v>
+        <v>-2.182136105378101</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.999366717951458</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.13928992933558</v>
+        <v>-20.28100101529443</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4907415012555103</v>
+        <v>-0.4866697950717335</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.301799753351477</v>
+        <v>-2.400266963024099</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.779666812714986</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.59022493275928</v>
+        <v>-19.72610994395355</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2163268336929319</v>
+        <v>-0.227887337102176</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.1598268213358</v>
+        <v>-2.27147797997004</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.606758848757858</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.02319729668412</v>
+        <v>-19.1577338006857</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01905967909846108</v>
+        <v>0.00728969884374934</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.201224682921338</v>
+        <v>-2.330354065849282</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.475512709341773</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.1283253051493</v>
+        <v>-18.26101579445019</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0319294127918778</v>
+        <v>0.02822429108766933</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.113807376847133</v>
+        <v>-2.254471078578637</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.388510006504445</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.78956196911964</v>
+        <v>-17.92419011924111</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06511840049565339</v>
+        <v>0.05883409513162487</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.306198767106297</v>
+        <v>-2.453879943160967</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.34809879445891</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.24564224756013</v>
+        <v>-17.37318746184422</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03808279512748905</v>
+        <v>0.03454787336022302</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.363700161187158</v>
+        <v>-2.515426858819922</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.351496657128772</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.81766795996695</v>
+        <v>-16.92920128787561</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08635411570493307</v>
+        <v>0.09737783469766642</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.278560915807414</v>
+        <v>-2.417588079683703</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.394929235509588</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.18351608722226</v>
+        <v>-16.29103007815851</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09418331280428525</v>
+        <v>0.08679925400155175</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.608342932087651</v>
+        <v>-2.757320246123653</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.468451864155986</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.5234545471538</v>
+        <v>-15.63350844484135</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09068766794554439</v>
+        <v>0.1012138794302922</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.52679097768654</v>
+        <v>-2.66817475607434</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.568104956115677</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.96010584817717</v>
+        <v>-15.05355870586141</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2096574238683092</v>
+        <v>0.2045383334571943</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.753471109088185</v>
+        <v>-2.913040096123142</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.692744798738262</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.28070697681148</v>
+        <v>-14.37783877159424</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3483572801735552</v>
+        <v>0.3352387927261457</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.715725999995489</v>
+        <v>-2.878175293655626</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.836327755746561</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.48101602693601</v>
+        <v>-13.57215154701726</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3445343277437711</v>
+        <v>0.3372680996666131</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.801323475974694</v>
+        <v>-2.978946748628391</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.992353175158609</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.87642657400794</v>
+        <v>-12.96600411005103</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4260862821448828</v>
+        <v>0.4162015934993796</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.789304741965989</v>
+        <v>-2.954346311588788</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.149912426461125</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.24393742372415</v>
+        <v>-12.33079176077616</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4800658467613194</v>
+        <v>0.4728127109870032</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.828215066011599</v>
+        <v>-2.99926600263875</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.302939322541175</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.86406425677147</v>
+        <v>-11.95150774745136</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3798966377192732</v>
+        <v>0.3730886402415757</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.948271483070227</v>
+        <v>-3.131341153706083</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.45135080976128</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.36811473282405</v>
+        <v>-11.44283250514178</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1378068658729165</v>
+        <v>0.1429783254953983</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.426795151935315</v>
+        <v>-3.600111056954085</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.591047286136426</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.95642726996597</v>
+        <v>-11.0319305804542</v>
       </c>
       <c r="F56" t="n">
-        <v>0.204263395097518</v>
+        <v>0.1926767070825905</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.510284767157002</v>
+        <v>-3.689701685300016</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.718377363542993</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.19157493795233</v>
+        <v>-10.26778523279402</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1590687656878796</v>
+        <v>0.1506242303549663</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.880377983886914</v>
+        <v>-4.069561759949856</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.82621310820212</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.895963832089</v>
+        <v>-9.979113047436803</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.01089550980340817</v>
+        <v>-0.01625026166567413</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.90181008363882</v>
+        <v>-4.091543736421114</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.911277976068737</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.319418091847909</v>
+        <v>-9.392158926436538</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05998621778169676</v>
+        <v>0.05086088270101369</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.188740992718088</v>
+        <v>-4.379705321967505</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.977831545046461</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.983495785534901</v>
+        <v>-9.060727279998243</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.06512382817383754</v>
+        <v>-0.06979778028833375</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.106796269231725</v>
+        <v>-4.293086646366645</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.02571832808908</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.445637800191111</v>
+        <v>-8.519661680458229</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.09019558811574296</v>
+        <v>-0.09497427865297298</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.502445661108687</v>
+        <v>-4.683184901838715</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.05542620869521</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.959900272460232</v>
+        <v>-8.035220290708683</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.05150783321844243</v>
+        <v>-0.05749101561711124</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.485150729054767</v>
+        <v>-4.680448610544794</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.06417890490874</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.494128506562985</v>
+        <v>-7.575470984118629</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.0665116122750605</v>
+        <v>-0.06793867328480865</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.477949962491818</v>
+        <v>-4.665837600573428</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.05161725544968</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.161230522206417</v>
+        <v>-7.24249444594501</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2303094131278954</v>
+        <v>-0.2298249979227515</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.686994761965658</v>
+        <v>-4.865835618783636</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.02578652499947</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.781881047367404</v>
+        <v>-6.865462308708984</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1806372161463866</v>
+        <v>-0.1809383391117463</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.951223617917373</v>
+        <v>-5.125534537952114</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.98915004367894</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.533074924163242</v>
+        <v>-6.617467908281008</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2871823766723534</v>
+        <v>-0.2857422233597635</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.927408719048273</v>
+        <v>-5.098001425075964</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.943916447981529</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.381505334164579</v>
+        <v>-6.465584103014144</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3602243342263431</v>
+        <v>-0.3653565169402997</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.021319807331975</v>
+        <v>-5.186649407617291</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.888689712182282</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.107431066475885</v>
+        <v>-6.193368942328975</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.320083333713611</v>
+        <v>-0.3200178721994024</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.027080420582334</v>
+        <v>-5.190747298406752</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.822714704144083</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.972658901023157</v>
+        <v>-6.060390422365564</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5782111765410821</v>
+        <v>-0.5869568348393551</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.092397919459705</v>
+        <v>-5.243181971287864</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.754203808303405</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.776942065842195</v>
+        <v>-5.87127210781683</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5263001957736383</v>
+        <v>-0.5249255039752571</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.932972947756007</v>
+        <v>-5.081190908227188</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.684877879350102</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.664793399699969</v>
+        <v>-5.765708870003993</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5992112302992108</v>
+        <v>-0.5946812935159735</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.885460980743383</v>
+        <v>-5.022799237553089</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.615669812839361</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.676157518566587</v>
+        <v>-5.782323002310144</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7130880804165441</v>
+        <v>-0.7165444483667598</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.75672436690069</v>
+        <v>-4.882750874055146</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.544056143253901</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.723237439585434</v>
+        <v>-5.830973999669998</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7460544989720104</v>
+        <v>-0.7515794507712188</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.558703286419584</v>
+        <v>-4.686052116161053</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.466945245947239</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.958558490862618</v>
+        <v>-6.060521345393981</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6338141867098928</v>
+        <v>-0.6343640634292452</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.419021507401208</v>
+        <v>-4.542495015501527</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.391045085115758</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.168323366992754</v>
+        <v>-6.269055545056994</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9778668130876121</v>
+        <v>-0.9759946137812453</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.24882157045877</v>
+        <v>-4.371771386445419</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.315887095121274</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.65700666286302</v>
+        <v>-6.746741306540211</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9015779644288743</v>
+        <v>-0.9061733627263202</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.07604244985651</v>
+        <v>-4.192328283696722</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.240358186405796</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.109044603079297</v>
+        <v>-7.192717510540768</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9605064195194833</v>
+        <v>-0.9644341103720012</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.994555956969608</v>
+        <v>-4.107477068979495</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.160518728962176</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.692856571397545</v>
+        <v>-7.781216523276355</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.019552705335668</v>
+        <v>-1.020757197197107</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.623585555949299</v>
+        <v>-3.742306558118071</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.071133572908503</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.114258522964182</v>
+        <v>-8.203927705127164</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9885632245093023</v>
+        <v>-0.9968244676024315</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.442414269225494</v>
+        <v>-3.56859788401405</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.977708850833055</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.583722318262796</v>
+        <v>-8.670589747617649</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.185811859122747</v>
+        <v>-1.177275677669942</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.072582898552416</v>
+        <v>-3.197601298388058</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.878861963970992</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.492000827907543</v>
+        <v>-9.566221092717287</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.11483848541775</v>
+        <v>-1.122811697848361</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.06639023930828</v>
+        <v>-3.194432961100361</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.772854197284165</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.28024910509934</v>
+        <v>-10.34610338839323</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.202674745182891</v>
+        <v>-1.207584358748538</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.871890988291597</v>
+        <v>-2.995076465729398</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.656089863938259</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.09752301769125</v>
+        <v>-11.15545645776589</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.314574657571123</v>
+        <v>-1.323163208235296</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.51731215042913</v>
+        <v>-2.646480810265599</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.523130726049422</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.29748494234681</v>
+        <v>-12.35036475352454</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.395301796893206</v>
+        <v>-1.401874132919753</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.376556802577733</v>
+        <v>-2.496495388910786</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.379315205980586</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.17549404782149</v>
+        <v>-13.22639692127012</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.479027073566044</v>
+        <v>-1.482129949339533</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.041524772857963</v>
+        <v>-2.16218343584731</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.223226457985467</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.34290850761252</v>
+        <v>-14.38736996806302</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.661154098397296</v>
+        <v>-1.657723915052763</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.791160665615636</v>
+        <v>-1.9063336537143</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.052960542780086</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.41612384845733</v>
+        <v>-15.45227169660333</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.711088141435639</v>
+        <v>-1.704633636134668</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.380193279413854</v>
+        <v>-1.495366267512518</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.865163730470287</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.79901142841749</v>
+        <v>-16.83472723056972</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.69213048692082</v>
+        <v>-1.679142922501827</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.062744212410522</v>
+        <v>-1.182538783412316</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.654607568476761</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.46049012054673</v>
+        <v>-18.48431811171868</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.932649182426169</v>
+        <v>-1.917121711255882</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8637019323077608</v>
+        <v>-0.9864684560546262</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.426494995330522</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.04367684168246</v>
+        <v>-20.06034334319997</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.141824904928427</v>
+        <v>-2.125799926250154</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5664281039835287</v>
+        <v>-0.6896659506326962</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.17988134234073</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.84278182128393</v>
+        <v>-21.84072632973778</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.331165788625469</v>
+        <v>-2.310349027107125</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7095138817407529</v>
+        <v>-0.8302249139414672</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.913795476050055</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.53036656527958</v>
+        <v>-23.51549370925138</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.426045707319458</v>
+        <v>-2.403985177031149</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.520434844100545</v>
+        <v>-0.635188878508274</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.626711871087792</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.60968610260251</v>
+        <v>-25.59617484606985</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.585470679023156</v>
+        <v>-2.559613380910747</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.5154990459292143</v>
+        <v>-0.6275298813458643</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.315493543137384</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.83224852531677</v>
+        <v>-27.81010944121141</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.459444171868701</v>
+        <v>-2.427498952934889</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6384095850073386</v>
+        <v>-0.7446667148707874</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.987166016731229</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.11544140249107</v>
+        <v>-30.08963647359002</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.934982795685875</v>
+        <v>-2.902225853975877</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9933811919550575</v>
+        <v>-1.096679461376276</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.641934369667055</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.30880798986827</v>
+        <v>-32.28842327434371</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.000614509831448</v>
+        <v>-2.958038340990155</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.239058254780047</v>
+        <v>-1.3426183702581</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.283180917189175</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.52974696703016</v>
+        <v>-34.5102132511903</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.3480973195537</v>
+        <v>-3.297482476767586</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.437288812106622</v>
+        <v>-1.53391000707856</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.908951671359734</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.04746226500829</v>
+        <v>-37.02812493371106</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.611737021877537</v>
+        <v>-3.55820259555772</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.851267427962</v>
+        <v>-1.949996483691456</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.524018068965586</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.56194376418451</v>
+        <v>-39.53294431339009</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.548972522054302</v>
+        <v>-3.501408185830312</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.309576581239463</v>
+        <v>-2.405399145738056</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.128273203778578</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.12662115245592</v>
+        <v>-42.0958673330807</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.723375088208936</v>
+        <v>-3.674449152489405</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.646218964208765</v>
+        <v>-2.731999732427754</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.737967201579475</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.4162423503255</v>
+        <v>-44.38920674495733</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.975323364095112</v>
+        <v>-3.924368121435114</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.216820798959712</v>
+        <v>-3.29310964761845</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.335224792774424</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.75645220637551</v>
+        <v>-46.73022832378353</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.123724616806077</v>
+        <v>-4.071250667016439</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.535592188550059</v>
+        <v>-3.612561836956566</v>
       </c>
     </row>
   </sheetData>
